--- a/data/case1/2/Q_device_13.xlsx
+++ b/data/case1/2/Q_device_13.xlsx
@@ -62,26 +62,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.018220959411424726</v>
+        <v>-0.031890850384236606</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.018140475511054927</v>
+        <v>-0.031874155364268852</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.030221025224147421</v>
+        <v>-0.01048112697195098</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.055299240171377113</v>
+        <v>-0.010588592636381991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.058383049430223051</v>
+        <v>-0.077427550191516911</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.058310855942669625</v>
+        <v>-0.077429069539474288</v>
       </c>
     </row>
     <row r="4">
